--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.034777666666667</v>
+      </c>
+      <c r="H2">
+        <v>9.104333</v>
+      </c>
+      <c r="I2">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="J2">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>1.399915</v>
-      </c>
-      <c r="H2">
-        <v>4.199745</v>
-      </c>
-      <c r="I2">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="J2">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N2">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P2">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q2">
-        <v>0.13708247663</v>
+        <v>0.1300948490146667</v>
       </c>
       <c r="R2">
-        <v>1.23374228967</v>
+        <v>1.170853641132</v>
       </c>
       <c r="S2">
-        <v>0.01045755512289747</v>
+        <v>0.007543342735662469</v>
       </c>
       <c r="T2">
-        <v>0.01045755512289747</v>
+        <v>0.00754334273566247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H3">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.159712</v>
       </c>
       <c r="O3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P3">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q3">
-        <v>0.5411660748266667</v>
+        <v>1.173156025788445</v>
       </c>
       <c r="R3">
-        <v>4.870494673440001</v>
+        <v>10.558404232096</v>
       </c>
       <c r="S3">
-        <v>0.04128371617779346</v>
+        <v>0.06802358473033961</v>
       </c>
       <c r="T3">
-        <v>0.04128371617779346</v>
+        <v>0.06802358473033961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H4">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N4">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O4">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P4">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q4">
-        <v>1.108742012766667</v>
+        <v>2.986208073296778</v>
       </c>
       <c r="R4">
-        <v>9.978678114900001</v>
+        <v>26.875872659671</v>
       </c>
       <c r="S4">
-        <v>0.08458215083810532</v>
+        <v>0.1731505216962151</v>
       </c>
       <c r="T4">
-        <v>0.08458215083810534</v>
+        <v>0.1731505216962151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.034777666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.104333</v>
+      </c>
+      <c r="I5">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="J5">
+        <v>0.2502264227183869</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>1.399915</v>
-      </c>
-      <c r="H5">
-        <v>4.199745</v>
-      </c>
-      <c r="I5">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="J5">
-        <v>0.1420321708872511</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N5">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O5">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P5">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q5">
-        <v>0.07483292296333334</v>
+        <v>0.02602423008422222</v>
       </c>
       <c r="R5">
-        <v>0.67349630667</v>
+        <v>0.234218070758</v>
       </c>
       <c r="S5">
-        <v>0.005708748748454811</v>
+        <v>0.001508973556169736</v>
       </c>
       <c r="T5">
-        <v>0.005708748748454812</v>
+        <v>0.001508973556169736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N6">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P6">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q6">
-        <v>0.5742150649693333</v>
+        <v>0.2513781520506666</v>
       </c>
       <c r="R6">
-        <v>5.167935584723999</v>
+        <v>2.262403368456</v>
       </c>
       <c r="S6">
-        <v>0.04380491104288093</v>
+        <v>0.0145757620039351</v>
       </c>
       <c r="T6">
-        <v>0.04380491104288093</v>
+        <v>0.0145757620039351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.159712</v>
       </c>
       <c r="O7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P7">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q7">
         <v>2.266852193329778</v>
@@ -883,10 +883,10 @@
         <v>20.401669739968</v>
       </c>
       <c r="S7">
-        <v>0.1729304310075419</v>
+        <v>0.1314398160641005</v>
       </c>
       <c r="T7">
-        <v>0.1729304310075419</v>
+        <v>0.1314398160641005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N8">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O8">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P8">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q8">
-        <v>4.644330789364444</v>
+        <v>5.77015518131311</v>
       </c>
       <c r="R8">
-        <v>41.79897710428</v>
+        <v>51.931396631818</v>
       </c>
       <c r="S8">
-        <v>0.3543001733900654</v>
+        <v>0.3345732632788277</v>
       </c>
       <c r="T8">
-        <v>0.3543001733900655</v>
+        <v>0.3345732632788277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>17.592014</v>
       </c>
       <c r="I9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N9">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O9">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P9">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q9">
-        <v>0.3134623241248889</v>
+        <v>0.05028579468488888</v>
       </c>
       <c r="R9">
-        <v>2.821160917124</v>
+        <v>0.4525721521639999</v>
       </c>
       <c r="S9">
-        <v>0.02391297278889539</v>
+        <v>0.002915741760079269</v>
       </c>
       <c r="T9">
-        <v>0.0239129727888954</v>
+        <v>0.002915741760079269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H10">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N10">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P10">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q10">
-        <v>0.2240138419126667</v>
+        <v>0.1099553483</v>
       </c>
       <c r="R10">
-        <v>2.016124577214</v>
+        <v>0.9895981346999999</v>
       </c>
       <c r="S10">
-        <v>0.01708925281833633</v>
+        <v>0.006375585844698071</v>
       </c>
       <c r="T10">
-        <v>0.01708925281833633</v>
+        <v>0.006375585844698071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H11">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.159712</v>
       </c>
       <c r="O11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P11">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q11">
-        <v>0.8843485652942222</v>
+        <v>0.9915440957333334</v>
       </c>
       <c r="R11">
-        <v>7.959137087648001</v>
+        <v>8.923896861599999</v>
       </c>
       <c r="S11">
-        <v>0.06746393920487211</v>
+        <v>0.0574931060552276</v>
       </c>
       <c r="T11">
-        <v>0.06746393920487211</v>
+        <v>0.0574931060552276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H12">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N12">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O12">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P12">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q12">
-        <v>1.811854907175555</v>
+        <v>2.523924285108333</v>
       </c>
       <c r="R12">
-        <v>16.30669416458</v>
+        <v>22.715318565975</v>
       </c>
       <c r="S12">
-        <v>0.1382202381535762</v>
+        <v>0.1463457320995671</v>
       </c>
       <c r="T12">
-        <v>0.1382202381535763</v>
+        <v>0.1463457320995671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H13">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N13">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O13">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P13">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q13">
-        <v>0.1222885009571111</v>
+        <v>0.02199551561666667</v>
       </c>
       <c r="R13">
-        <v>1.100596508614</v>
+        <v>0.19795964055</v>
       </c>
       <c r="S13">
-        <v>0.009328973119643945</v>
+        <v>0.001275374960659875</v>
       </c>
       <c r="T13">
-        <v>0.009328973119643948</v>
+        <v>0.001275374960659875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H14">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.097922</v>
+        <v>0.042868</v>
       </c>
       <c r="N14">
-        <v>0.293766</v>
+        <v>0.128604</v>
       </c>
       <c r="O14">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="P14">
-        <v>0.07362807353834616</v>
+        <v>0.03014606792405771</v>
       </c>
       <c r="Q14">
-        <v>0.02983950993466666</v>
+        <v>0.028480170292</v>
       </c>
       <c r="R14">
-        <v>0.268555589412</v>
+        <v>0.256321532628</v>
       </c>
       <c r="S14">
-        <v>0.002276354554231424</v>
+        <v>0.001651377339762069</v>
       </c>
       <c r="T14">
-        <v>0.002276354554231425</v>
+        <v>0.001651377339762069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H15">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.159712</v>
       </c>
       <c r="O15">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="P15">
-        <v>0.2906645439543804</v>
+        <v>0.2718481285523376</v>
       </c>
       <c r="Q15">
-        <v>0.1177986483982222</v>
+        <v>0.2568255672426667</v>
       </c>
       <c r="R15">
-        <v>1.060187835584</v>
+        <v>2.311430105184</v>
       </c>
       <c r="S15">
-        <v>0.00898645756417296</v>
+        <v>0.01489162170266982</v>
       </c>
       <c r="T15">
-        <v>0.008986457564172962</v>
+        <v>0.01489162170266982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H16">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7920066666666666</v>
+        <v>0.9839956666666666</v>
       </c>
       <c r="N16">
-        <v>2.37602</v>
+        <v>2.951987</v>
       </c>
       <c r="O16">
-        <v>0.5955140325585032</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="P16">
-        <v>0.5955140325585033</v>
+        <v>0.69197537100662</v>
       </c>
       <c r="Q16">
-        <v>0.2413460795155555</v>
+        <v>0.6537362170676667</v>
       </c>
       <c r="R16">
-        <v>2.17211471564</v>
+        <v>5.883625953609</v>
       </c>
       <c r="S16">
-        <v>0.01841147017675616</v>
+        <v>0.03790585393200999</v>
       </c>
       <c r="T16">
-        <v>0.01841147017675616</v>
+        <v>0.03790585393200998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H17">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05345533333333333</v>
+        <v>0.008575333333333332</v>
       </c>
       <c r="N17">
-        <v>0.160366</v>
+        <v>0.025726</v>
       </c>
       <c r="O17">
-        <v>0.04019334994877018</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="P17">
-        <v>0.04019334994877019</v>
+        <v>0.006030432516984765</v>
       </c>
       <c r="Q17">
-        <v>0.01628930117911111</v>
+        <v>0.005697185631333333</v>
       </c>
       <c r="R17">
-        <v>0.146603710612</v>
+        <v>0.051274670682</v>
       </c>
       <c r="S17">
-        <v>0.001242655291776028</v>
+        <v>0.000330342240075884</v>
       </c>
       <c r="T17">
-        <v>0.001242655291776028</v>
+        <v>0.000330342240075884</v>
       </c>
     </row>
   </sheetData>
